--- a/post.xlsx
+++ b/post.xlsx
@@ -454,8 +454,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Đào Mỹ Dung****các chi ơi cho e hỏi e đi khám pk bác sĩ nói e bị vlt độ 2bác sĩ bảo đốt nhưng e muốn sinh thêm bé thì sau này có ảnh hưởng gì không ạ
-Các bác có cách gì review e với</t>
+          <t xml:space="preserve">Thu Trang****Đợt này dịch bệnh nhiều nên khoa nhi các bệnh viện quá đông 2 bé nhà mình ốm đi viện k có phòng Lặn lội xa xôi vào Hồng Ngọc Phúc Trường Minh chỉ là mong có phòng cho con nhập viện may mắn là có phòng đểXem thêm lưu lại Và bất ngờ là chất lượng dịch vụ thì quá ổn
+Ấn tương đầu tiên khi đến đây là bv siêu to siêu đẹp Không gian xanh nhiều vào bv mà như đi nghỉ dưỡng 
+Y tá bác sĩ nhẹ nhàng mọi thủ tục đều rất nhanh
+Các cô bác tạp vụ hay bác bảo vệ cũng đều nhiệt tình niềm nở
+Đồ ăn của viện cũng rất ngon bé nhà mình ăn hết bay suất cơm của viện một cách ngon lành bảo mẹ khi nào về nấu giống như này cho con ăn  Xin nhỗi baby tiêu chuẩn 5 mẹ k thể học theo 
+Các mẹ yên tâm là dù dịch bệnh đợt này nhiều nhưng bv vẫn chia vùng các loại bệnh nên hạn chế được việc lây chéo khá ok đấy ạ
+Để chấm điểm thì e cho điểm 95
+Còn 05 điểm trừ vì rộng đẹp quá nên ng nhà vào toàn đi dạo bị lạc mãi mới thấy đến </t>
         </is>
       </c>
     </row>
@@ -468,9 +474,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Khoa Hòa Hiệp****Các chị cho em hỏi em đốt vlt từ ngày 238 và chăm luôn tại chỗ bác sĩ đến tận giờ nhưng vẫn chưa tái tạo hoàn toàn ddc khoanrng 95 r maf 5 còn lại thì bsi nói cả tháng r chưa xi nhê gì
-Cho em hỏi có cách nào bổ sung thức ăn hoac thuoc để đấy nhanh quá trình được k ạ
-các bác có kinh nghiệm review chỉ e với</t>
+          <t>Nguyễn Thu Thuỷ****Từ ngày uống em uống e này là thấy khoẻ lên rõ rệt luôn
+Không những ngon và yến xào còn giúp hệ tiêu hoá hoạt động tốt hơn giúp hấp thu canxi và dưỡng chất
+Đông trùng hạ thảo chứa cực nhiều dưỡng chất và làXem thêm nguồn năng lượng giúp cơ thể khoẻ mạnh  có tác dụng nâng cao sức khoẻ tăng cường miễn dịch cơ thể
+Phù hợp cho các trẻ nhỏ biếng ăn người ốm gầy yếu người lớn mệt mỏi suy nhược cơ thể người cần được phục hồi sức khoẻ sau ốm</t>
         </is>
       </c>
     </row>
@@ -483,8 +490,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phong Trần****M N oi cho mình hỏi là đốt với ap lanh cái nào dk hơn vậy ạ mình khám bị lt diện rộng mà bv thì bảo áp lạnh còn phòng khám thì bảo đốt mình phân vân quá ai đã làm rồi cho mình xin kinh nghiệm với ạ
-cảm ơn m n nhiều</t>
+          <t>Trần My****Sau sinh mổ có ai bị sẹo lồi như e k ạ
+Vết sẹo mổ bị lồi có mờ k các chịSau sinh e giảm dk mỡ bụng và rạn da rồi Làm sao mờ dk vết sẹo lồi này đây cả nhà
+Ai biết chỉ e với chứ e stress lắm lại còn bị ngứa nữa</t>
         </is>
       </c>
     </row>
@@ -497,7 +505,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ấu Kim Ngân****Chào các chị em trong nhóm ạ hiện nay em đang chuẩn bị điều trị vlt độ 3 nhưng còn đang băn khoăn về các phương pháp Ở PS HN thì thường làm đốt mà thấy nhiều người kêu đau lắm nên muốn nhờ mọi người tư vấn thêm về các phương pháp xử lý với ạ Em cảm ơn mn</t>
+          <t xml:space="preserve">Hoàng Thị Tú****Bầu bí 39w chuẩn bị sinh có kiêng quan hệ k các mẹ ơii </t>
         </is>
       </c>
     </row>
@@ -510,7 +518,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hi Thiện Nhân****Cho em xin địa chỉ khám và chữa vlt độ 2 an toàn và giá ok dc kh ạ   e buồn quá e mới 20t Mà e trước khám ngta nói chi phí chữa khoảng 1215tr  Ai giúp em cho e xin địa chỉ uy tín hơn ạ  Em cảm ơn mng nhìu ạ</t>
+          <t>Niny Katy****Đợt vừa rồi 2 đứa đều viêm phế quản các bệnh viện cháy giường may cuối cùng vẫn lấy được giường ở Hồng Ngọc PTM Hằng ngày bác sĩ đi thăm khám 2 lần rất nhẹ nhàng và nhiệt tình giải đáp thắc mắc Mình có hỏiXem thêm bs có nên làm thêm xét nghiệm này kia không cho yên tâm vì nhiều người làm bs tư vấn rất cụ thể và còn khuyên là với tình hình của bạn nhà mình thì bs nghĩ là không cần thiết ko như các chỗ khác muốn khách làm càng nhiều dịch vụ càng tốt ấy Bấm chuông là các cô điều dưỡng sẽ vào ngay bất kể ngày đêm Có lúc mình dở tay còn phải nhờ các cô bế hộ 1 đứ</t>
         </is>
       </c>
     </row>
@@ -523,7 +531,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Đào Ngọc Ngân****20t chưa có e bé bị vlt độ 3 thì em nên dùng phương pháp nào ạ Mọi người tư vấn giúp em với ạ Tại em nghe nói đốt va áp lạnh sau khó có em bé</t>
+          <t xml:space="preserve">Loan Nguyễn****Nếu có cơ hội thì mình có quay trở lại BV Hồng Ngọc không Thì câu tl là KHÔNG nha mọi người ơi
+Nay con mình được hơn 5m bị sốt 395 độ nên vợ chồng mình cho vào khám tại Hồng Ngọc Điều khiến mình rất bức xúc đó là
+1 Y tá lấy máu cho trẻ em đâm lên đâm xuống đến 56 lần và sau đó cầu cứu một y tá khác có vẻ là y tá trưởng thì mới lấy được máu cho con mình Bé nhà mình đã khóc loạn lên vì quá đau
+2 Cháu thì sốt lên sốt xuống mà khám lần đầu bsi yc xét nghiệm 03 bệnh  trả kết quả trong 1 tiếng đh
+Tuy nhiên sau đó bác sĩ muốn kiểm tra kĩ hơn nên đã yc làm thêm 2 xét nghiệm khác Điều đáng nói ở đây là cái kết quả của lần xét nghiệm thứ 2 mình phải chờ gần 3 tiếng đồng hồ Hỏi đội hỗ trợ bệnh nhân ở đó 2 lần thì họ nói chờ có kq Đến lần thứ 3 phản hồi chờ hơn 2 tiếng rồi bắt đầu mới đi check lại và lúc sau xuống trả lời với mình là kết quả phải hội chẩn  đến khi trả kq và mình có phản hồi với bsi là chờ quá lâu thì bsi nói hnay đông bệnh nhân Hai lí do hoàn toàn khác nhau nên mình chốt lại là XÓT KẾT QUẢ XÉT NGHIỆM CỦA CON TRAI MÌNH 
+Mình ko bức xúc đến như vậy nếu con mình không sốt rên ư ử và 2 vợ chồng quanh quẩn ở bv 5 tiếng đồng hồ Cũng có thể do mình đen nhưng thương con quá phải post bài này </t>
         </is>
       </c>
     </row>
@@ -536,8 +549,8 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyen Yen Nguyen****NỢ XẤU CŨNG CÓ THỂ VAY
-Ai can vay tien thi em khuyen tranh xa bon cho vay nang lai và mấy app vay tiền ra nheTruoc đay em do em vay qua mấy app như FEHDHOME bị nợ xấu cấp độ 3ngu ngo đi vay linh tinh qua mang toan bi lua nhung sau nay em gap đuoc Anh Nguyên 0969928710 nay và đã nhận được 160tr anh ấy thatXem thêm tha lam cho em ma lai xuat cung re va ho tro ca no xau và điều quan trọng a ấy RẤT CÓ TRÁCH NHIỆM vì anh ý chạy chỉ tiêu nen hom nay em viet len đay cho moi nguoi biet ai co nhu cau vay va đoc đuoc bai viet nay thi lien he cho anh ý Zalo 0969928710 thủ tục nhanh gọn lai suat quá oke luôn Cho vay tot thi em gioi thieu thoi chu  thay nhieu nguoi bi lua quanếu mọi người đang cần tiền thì zalo chính của anh ý đây mọi người nhé 0969928710  anh Nguyên </t>
+          <t>Liên Luật Bảo Hiểm****Nhóm mình ai đang mang bầu chưa có bhyt thì ib mình tư vấn cho đăng ký sinh tại bệnh viện phụ sản Hà Nội
+Giao thẻ tận nhà các bạn ko phải đi lại</t>
         </is>
       </c>
     </row>
@@ -550,8 +563,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Đặng Johnny****Các chị cho em hỏi chút
-Sau đốt lộ tuyến cổ tử cung ckk và lượng máu kinh có ra binhf thường như lúc mình chưa đốt không ạ</t>
+          <t>Thanh Nga****HOT Thẻ bảo lãnh 100 viện phí
+Cho tất cả các thành viên trong gia đình
+ Thanh toán từ viện công cho đến Quốc Tế và toàn cầu
+ Ngon bổ rẻ với các bé từ 05 tuổi giá chỉ 2tr1 năm
+ Quan trọng Cắt thắng lưỡi  các bệnh viêm phổi nạo VA k bị loại trừ liên kết trực tiếp với khoa S bv Nhi Trung Ương
+ Các bệnh xương khớp người già vẫn được thanh toán
+Mn quan tâm ib e tư vấn ạ</t>
         </is>
       </c>
     </row>
@@ -564,7 +582,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ton Thanh Viet****Em rất hay bị ra khí hư ướt quần lót Có lúc đặc quện có lúc nhớt nhớt như lòng trắng có lúc lại ra khí hư nhớt lẫn cả mấy gợn máu Có ai bị như em k ạ Như vậy có phải viêm nặng k ạ</t>
+          <t>Liên Luật Bảo Hiểm****Nhóm mình ai đang mang bầu chưa có bhyt thì ib mình tư vấn cho đăng ký sinh tại bệnh viện phụ sản Hà Nộ</t>
         </is>
       </c>
     </row>
@@ -577,8 +595,8 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lê Văn Sơn****Các chi e có ai trong nhóm bị viêm khi có bầu mà xứ ra ẩm ướt khó chịu ko ah 
-E giờ có bầu ko dùng được gì cứ rửa nước chè lá trầu không thôi sinh xong chắc viêm nặng luôn </t>
+          <t>Liên Luật Bảo Hiểm****Bạn nào muốn mua thẻ bhyt có nơi KCB ban đầu ở đây alo mình làm cho nhé 0988191416
+ Không làm cho bé dưới 6 tuổi và những ai đang đóng bhxh bắt buộc buộc theo công ty</t>
         </is>
       </c>
     </row>
@@ -591,8 +609,8 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phạm Mai Hoa****Em nghi ngờ bị mụn rộp sinh dục ạ chị nào đã từng điều trị mụn rộp sonh dục thì mách em kinh nghiệm với ạ
-Em bị nấm 2 tháng trước sau khi đặt và uống thuốc đỡ rồi nhưng em soi phần âm đạo thì thấy có mụn li ti ở quanh có đợt nó bị vỡ rồi nay lại lên lại huhu em chưa lập gia đình ạ</t>
+          <t>Liên Luật Bảo Hiểm****Danh mục bảo hiểm y tế thanh toán tại bệnh viện Hồng Ngọc  Phúc Trường Minh
+Số 1 Châu Văn Liêm  Nam Từ Liêm  Hà Nội</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trang Jin****Mn cho e hỏi chút ạ
-E bị viêm lộ tuyến đầu độ 3 mn có địa chỉ nào chữa uy tín mách e với ạ
-E chưa lập gia đình và sinh con ạ</t>
+          <t>Liên Luật Bảo Hiểm****Chị Mai Cho chị hỏi Chị có đăng ký khám chữa bệnh ở bệnh viện 354hay Bạch Mai hoặc 108 không
+Chúng tôi Không Chị ạ
+Khoản 1 Điều 26 Luật Bảo hiểm y tế và Điều 8 và 9 Thông tư số 402015TTBYT của Bộ Y tế quy định người tham gia bảo hiểm y tế được đăng ký khám chữa bệnh ban đầu tại các cơ sở khám chữa bệnh sau  Cơ sở khám chữa bệnh ban đầu tuyến xã tuyến huyện và tương đương không phân biệt địa giới hành chính phù hợp với nơi làm việc nơi cư trú và khả năng đáp ứng của cơ sở khám chữa bệnh
+Cơ sở khám chữa bệnh ban đầu tuyến tỉnh tuyến trung ương và tương đương
+1 Đăng ký khám chữa bệnh ban đầu tại cơ sở khám chữa bệnh tuyến tỉnh tuyến trung ương trừ Phòng khám BBVCBSK tỉnh trong các trường hợp sau đây  Người thường trú tạm trú có thời hạn hoặc làm việc trên địa bàn quận huyện thị xã thành phố thuộc tỉnh không có cơ sở khám chữa bệnh tuyến xã tuyến huyện hoặc các cơ sở đó không đáp ứng được việc khám chữa bệnh ban đầu theo quy định của Giám đốc Sở Y tế sau khi có sự thống nhất bằng văn bản của Giám đốc Bảo hiểm xã hội tỉnh hoặc do Giám đốc Sở Y tế sau khi có sự thống nhất bằng văn bản của Giám đốc Bảo hiểm xã hội tỉnh
+ 2 Đối với các đối tượng đặc biệt  Đối tượng thuộc diện được quản lý bảo vệ sức khoẻ theo Hướng dẫn số 52 HDBTCTW của Ban Tổ chức Trung ương Đảng được đăng ký khám chữa bệnh ban đầu tại Bệnh viện Hữu Nghị Bệnh viện C Đà Nẵng Bệnh viện Thống Nhất trực thuộc Bộ Y tế hoặc cơ sở khám chữa bệnhtuyến tỉnh trừ Bệnh viện Nhi Sản Nhi và cơ sở khám chữa bệnh tuyến trung ương khác  Đối tượng thuộc diện được quản lý bảo vệ sức khỏe cán bộ của tỉnh thành phố được đăng ký khám chữa bệnh ban đầu tại Phòng khám thuộc Ban BVCSSKCB tỉnh hoặc cơ sở khám chữa bệnhtuyến tỉnh trừ Bệnh viện Nhi Sản Nhi  Người có công với cách mạng người từ đủ 80 tuổi trở lên được đăng ký khám chữa bệnh ban đầu tại cơ sở khám chữa bệnh tuyến tỉnh trừ Bệnh viện Nhi Sản nhi Phòng khám Ban BVCSSKCB tỉnh Bệnh viện Hữu Nghị Bệnh viện C Đà Nẵng Bệnh viện Thống Nhất Tp Hồ Chí Minh  Trẻ em dưới 6 tuổi được đăng ký khám chữa bệnh ban đầu tại Bệnh viện đa khoa tỉnh Bệnh viện đa khoa hạng I II thuộc Bộ ngành
+ Người công tác trong quân đội khi nghỉ hưu được đăng ký khám chữa bệnh ban đầu tại các cơ sở khám chữa bệnh thuộc Bộ Quốc phòng quản lý và theo quy định của Bộ Quốc phòng
+3 Người tham gia bảo hiểm y tế đang sinh sống tại xã đảo huyện đảo được đăng ký khám chữa bệnh ban đầu tại một cơ sở khám chữa bệnh thuận lợi nhất trên đất liền nếu trên các xã đảo huyện đảo không có cơ sở khám chữa bệnh tuyến xã huyện tỉnh trung ương</t>
         </is>
       </c>
     </row>
@@ -620,7 +643,8 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lam Tat Hieu****Các chị ơi cho em hỏi em muốn ra hà nội khám phụ khoa siêu âm cổ tử cung vòi trứng thì vao bệnh viện nào được ạ em cảm ơn</t>
+          <t>Liên Luật Bảo Hiểm****Ai chưa làm thẻ bhyt bao giờ vì thủ tục lằng nhằng mất thời gian thì nay đã có Tôi nhé nhận giao tận nhà cho Mọi người đã thế còn được chọn nơi đăng ký khám nữa
+Inbox hoặc gọi Hotline 0988191416</t>
         </is>
       </c>
     </row>
@@ -633,7 +657,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Anh Huy****Các chị ơi em nnay 22t hnay e đi khám thì bsi có bảo nghi bị lậu mặc dù e cx chưa có kq xnghiem nhg e đọc trên mạng thì song cầu gram âm là bị rồi ạ  e sợ lắm ạ  Mặc dù em qhe an toàn chỉ 1 ng là ny e hiện tại e chuqa bh nghĩ mk bị căn bệnh này ạ  có cách nào chuữa và liệu có khỏi ko aj </t>
+          <t>Hằng Đào****</t>
         </is>
       </c>
     </row>
@@ -646,11 +670,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Review Bệnh Viện Phòng Khám Phụ Khoa Tại Hà Nội****Các anh chị ơi cho e hỏi với ạ 
- em có qhtd hôm 8 hay 99 và e có thử nước có 1 cái bị bục li ti và e có rửa sạch sẽ và uống thuốc khẩn cấp 1v sau 20p đó
-ngày 219 e có kinh 4 ngày
- nhưng tháng này e bị chập 1 ngày nay 2210 vẫn chưa có
-em có mua que test điện tử và thương test đều 1 vạch ko mờ liệu e có em bé không ạ mong ac và bác sĩ tư vấn cho e ạ</t>
+          <t xml:space="preserve">Van Anh****Trong thời điểm viện nào cũng full kín phòng thì may mắn cho con là qa bên Hồng Ngọc có phòng nằm ngay và kịp thời dịch vụ tốt các cô chú y bác sĩ thì nhiệt tình nhẹ nhàngbé Đậu mệt n vẫn đòi đi chơi vì viện siêu đẹp và sạch sẽ ạ đi viện n k giống đi viện là đây các mẹ uii cảm ơn các cô các chú trong viện ạ </t>
         </is>
       </c>
     </row>
@@ -663,11 +683,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kim Hà****Các anh chị ơi cho e hỏi với ạ 
- em có qhtd hôm 8 hay 99 và e có thử nước có 1 cái bị bục li ti và e có rửa sạch sẽ và uống thuốc khẩn cấp 1v sau 20p đó
-ngày 219 e có kinh 4 day
- nhưng tháng này e bị chập 1 ngày nay 2210 vẫn chưa có
-em có mua que test điện tử và thương test đều 1 vạch ko mờ liệu e có em bé không ạ mong ac và bác sĩ tư vấn cho e ạ</t>
+          <t>Hà Ngọc Mai****Thẻ bảo lãnh 100 viện phí 
+Cho tất cả các thành viên trong gia đình
+ Thanh toán 100 từ viện công cho đến Quốc Tế
+ Ngon bổ rẻ với các bé từ 05 tuổi giá chỉ 2tr1 năm
+ Có thể tham gia rời hoặc kèn HĐ BHNT
+ Cắt thắng lưỡi  các bệnh viêm phổi nạo VA k bị loại trừ liên kết trực tiếp với khoa S bv Nhi Trung Ương
+ Các bệnh xương khớp người già vẫn được thanh toán
+Mn quan tâm ib e tư vấn ạ
+thecssk thesuckhoe baolanhvienphi</t>
         </is>
       </c>
     </row>
@@ -680,11 +704,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Huỳnh Thanh Việt Nga****Chào mọi người
-Có chị em nào điều trị viêm lộ tuyến bằng phương pháp sóng cao tần RFA chưa ạ
-Em có đi khám ở PSTW Bác sĩ chuẩn đoán viêm lộ tuyến diện rộng nhưng bác lại không chỉ định can thiệp đốt áp lạnh leep Em có đặt thuốc 2 đợt rồi mà vẫn không đỡ
-Vợ chồng em mong con bồi bổ các kiểu mà thả 6 tháng vẫn chưa có ạ Trộm vía làmXem thêm các xét nghiệm thăm khám thì bình thường ngoài việc viêm lộ tuyến diện rộng Em thực sự muốn điều trị dứt điểm viêm lộ tuyến mà xử lý ở các phòng khám tư thì sợ tiền mất tật mang ạ
-Các chị em cho em xin tư vấn với Em cảm ơn nhiều ạ</t>
+          <t>Nguyễn Ngọc Thanh Nga****Bên mình tuyển nhân viên partime làm việc tại nhà
+Thời gian
+Ca 1 9h11h 150k
+Ca 2 11h3017hTHƯỞNG 100kLương 30k1 giờ
+Ca 3 18h22h THƯỞNG170k
+Xoay ca linh hoạt THƯỞNG 300K
+ Yêu cầu
+Có thiết bị như điện thoại
+Làm online tại nhàLương chuyển cuối ngàyi
+Yêu cầu có thẻ ngân hàng
+ Quan tâm IB mình gửi JD ạ
+2 bình luận
+Thích
+Bình luận
+Chia sẻ</t>
         </is>
       </c>
     </row>
@@ -697,7 +731,8 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dam Kien Minh****Em bị vlt độ 2 nhưng giờ em chưa muốn đốt thì để lâu nó có bị nguy hiểm ra không ạ và mọi người có cách nào để vlt không lan rộng ra thì chỉ cho em với ạ </t>
+          <t>Hoàng Lý Thu Hiền****Các bác cho em hỏi e muốn tiêm bổ não vào hồng ngọc có được không ah  Có bác nào tiêm
+Chưa ạ</t>
         </is>
       </c>
     </row>
@@ -710,7 +745,9 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Đặng Johnny****Cả nhà ơi trong nhóm mình có chị e nào bị Viêm lộ tuyến vẫn không đốt chưa ạ E bị mà chưa muốn đốt sợ đau với nghề nói bị tái lại dễ </t>
+          <t>Thu Trang****Cả nhà ơi
+Cho mình hỏi là khám và nằm viện ở hồng ngọc mà dùng bảo hiểm y tế đúng tuyến
+thì sẽ được hỗ trợ bao nhiêu  chi phí nhỉ</t>
         </is>
       </c>
     </row>
@@ -723,7 +760,10 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lê Văn Sơn****Cả nhà cho e hỏi đã ai trong nhóm uống Nữ Vương New chưa ạ  Cho e xin chút riview với</t>
+          <t>Phạm Thị Nhung****Em đã từng sinh bé tại bv Hồng NgọcPTM và lần này con lại nhập viện vì adeno virut
+Yên tâm thực sự vì từ các y bác sỹ  điều dưỡng hộ lý đều nhẹ nhàng và ân cần lắm luôn ạ 
+Đồ ăn thì quá là ngon luôn 
+Con đã được về sau 5 ngày điều trị và đã khỏi hoàn toàn</t>
         </is>
       </c>
     </row>
